--- a/Dashboards/DRONE.xlsx
+++ b/Dashboards/DRONE.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -58,12 +58,12 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
+    <x:t>MisterMac</x:t>
+  </x:si>
+  <x:si>
     <x:t>samuel king</x:t>
   </x:si>
   <x:si>
-    <x:t>MisterMac</x:t>
-  </x:si>
-  <x:si>
     <x:t>F-35 Lightning</x:t>
   </x:si>
   <x:si>
@@ -232,7 +232,7 @@
     <x:t>- (/)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,8 (741/922)</x:t>
+    <x:t>0,9 (916/1047)</x:t>
   </x:si>
   <x:si>
     <x:t>0,0 (0/0)</x:t>
@@ -257,6 +257,9 @@
   </x:si>
   <x:si>
     <x:t>1,1 (203/190)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (175/125)</x:t>
   </x:si>
   <x:si>
     <x:t>0,4 (21/53)</x:t>
@@ -757,90 +760,90 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>1558.71315972219</x:v>
+        <x:v>2296.86271577378</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>302569.794083334</x:v>
+        <x:v>597800.687291665</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
-        <x:v>74.0995000000112</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="16" t="n">
-        <x:v>2461.77266666648</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="16" t="n">
-        <x:v>2749.63954166661</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="16" t="n">
-        <x:v>1183.66108333319</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2" s="16" t="n">
-        <x:v>1237.11166666681</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="16" t="n">
-        <x:v>1645.99450000003</x:v>
-      </x:c>
-      <x:c r="K2" s="16" t="s"/>
-      <x:c r="L2" s="16" t="s"/>
-      <x:c r="M2" s="16" t="s"/>
-      <x:c r="N2" s="16" t="s"/>
-      <x:c r="O2" s="16" t="s"/>
-      <x:c r="P2" s="16" t="s"/>
-      <x:c r="Q2" s="16" t="s"/>
-      <x:c r="R2" s="16" t="s"/>
+        <x:v>1505.74779166642</x:v>
+      </x:c>
+      <x:c r="K2" s="16" t="n">
+        <x:v>3535.43091666652</x:v>
+      </x:c>
+      <x:c r="L2" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M2" s="16" t="n">
+        <x:v>2084.99579166668</x:v>
+      </x:c>
+      <x:c r="N2" s="16" t="n">
+        <x:v>2543.62970833306</x:v>
+      </x:c>
+      <x:c r="O2" s="16" t="n">
+        <x:v>1584.7937500003</x:v>
+      </x:c>
+      <x:c r="P2" s="16" t="n">
+        <x:v>4862.33020833309</x:v>
+      </x:c>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>5368.85949999979</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>10670.290354167</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>1534.69911904756</x:v>
+        <x:v>1558.71315972219</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>587130.396937498</x:v>
+        <x:v>302569.794083334</x:v>
       </x:c>
       <x:c r="E3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>74.0995000000112</x:v>
       </x:c>
       <x:c r="F3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2461.77266666648</x:v>
       </x:c>
       <x:c r="G3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2749.63954166661</x:v>
       </x:c>
       <x:c r="H3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1183.66108333319</x:v>
       </x:c>
       <x:c r="I3" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1237.11166666681</x:v>
       </x:c>
       <x:c r="J3" s="16" t="n">
-        <x:v>1505.74779166642</x:v>
-      </x:c>
-      <x:c r="K3" s="16" t="n">
-        <x:v>3535.43091666652</x:v>
-      </x:c>
-      <x:c r="L3" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M3" s="16" t="n">
-        <x:v>2084.99579166668</x:v>
-      </x:c>
-      <x:c r="N3" s="16" t="n">
-        <x:v>2543.62970833306</x:v>
-      </x:c>
-      <x:c r="O3" s="16" t="n">
-        <x:v>1584.7937500003</x:v>
-      </x:c>
-      <x:c r="P3" s="16" t="n">
-        <x:v>4862.33020833309</x:v>
-      </x:c>
-      <x:c r="Q3" s="16" t="n">
-        <x:v>5368.85949999979</x:v>
-      </x:c>
-      <x:c r="R3" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>1645.99450000003</x:v>
+      </x:c>
+      <x:c r="K3" s="16" t="s"/>
+      <x:c r="L3" s="16" t="s"/>
+      <x:c r="M3" s="16" t="s"/>
+      <x:c r="N3" s="16" t="s"/>
+      <x:c r="O3" s="16" t="s"/>
+      <x:c r="P3" s="16" t="s"/>
+      <x:c r="Q3" s="16" t="s"/>
+      <x:c r="R3" s="16" t="s"/>
     </x:row>
     <x:row r="4" spans="1:146">
       <x:c r="B4" s="14" t="s">
@@ -2383,14 +2386,13 @@
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="22.700625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="17.130625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="18.980625" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="9" width="13.270625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="15.980625" style="0" customWidth="1"/>
     <x:col min="11" max="12" width="13.270625" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="14.700625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="13.270625" style="0" customWidth="1"/>
-    <x:col min="15" max="16" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="15" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -2446,7 +2448,7 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
         <x:v>53</x:v>
@@ -2496,7 +2498,7 @@
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
         <x:v>61</x:v>
@@ -2541,7 +2543,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -2549,7 +2551,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>62</x:v>
@@ -2567,28 +2569,28 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
         <x:v>62</x:v>
